--- a/Tables/Fig_10_NN_Architectures/References_vs_NN_MC_scenario.xlsx
+++ b/Tables/Fig_10_NN_Architectures/References_vs_NN_MC_scenario.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NN_molecular_communications\Tables\Fig_10_NN_Architectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C8622-1342-48FD-BCD1-1FE80D57360C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFFF50-85BF-48FA-BF70-79F2910F0B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="3610" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32430" yWindow="2940" windowWidth="19185" windowHeight="10065"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="FeedForwardNN" sheetId="3" r:id="rId3"/>
+    <sheet name="CNN" sheetId="4" r:id="rId4"/>
+    <sheet name="RNN" sheetId="5" r:id="rId5"/>
+    <sheet name="BiRNN" sheetId="6" r:id="rId6"/>
+    <sheet name="Autoencoder" sheetId="7" r:id="rId7"/>
+    <sheet name="Transformer" sheetId="8" r:id="rId8"/>
+    <sheet name="ReinforcementLearning" sheetId="9" r:id="rId9"/>
+    <sheet name="GraphNeuralNetwork" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">References!$A$1:$E$55</definedName>
+  </definedNames>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +36,311 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="532" uniqueCount="99">
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>PHY layer</t>
+  </si>
+  <si>
+    <t>mohamed2021biocyber</t>
+  </si>
+  <si>
+    <t>ozdemir2021estimating</t>
+  </si>
+  <si>
+    <t>yilmaz2017machine</t>
+  </si>
+  <si>
+    <t>lee2017machine</t>
+  </si>
+  <si>
+    <t>gulec2020distance</t>
+  </si>
+  <si>
+    <t>ozdemir2024estimating</t>
+  </si>
+  <si>
+    <t>damrath2018array</t>
+  </si>
+  <si>
+    <t>ozbey2024artificial</t>
+  </si>
+  <si>
+    <t>cheng2024channel</t>
+  </si>
+  <si>
+    <t>cheng2025deep</t>
+  </si>
+  <si>
+    <t>debus2024synchronized</t>
+  </si>
+  <si>
+    <t>debus2023reinforcement</t>
+  </si>
+  <si>
+    <t>casaleiro2024synchronisation</t>
+  </si>
+  <si>
+    <t>shrivastava2021scaled</t>
+  </si>
+  <si>
+    <t>alshammri2018adaptive</t>
+  </si>
+  <si>
+    <t>bartunik2022using</t>
+  </si>
+  <si>
+    <t>chen2021selfattention</t>
+  </si>
+  <si>
+    <t>cheng2023signal</t>
+  </si>
+  <si>
+    <t>farsad2018neural</t>
+  </si>
+  <si>
+    <t>farsad2018sliding</t>
+  </si>
+  <si>
+    <t>farsad2018detection</t>
+  </si>
+  <si>
+    <t>qian2018receiver</t>
+  </si>
+  <si>
+    <t>qian2019molecular</t>
+  </si>
+  <si>
+    <t>sharma2020deep</t>
+  </si>
+  <si>
+    <t>shrivastava2021performance</t>
+  </si>
+  <si>
+    <t>sun2020ctbrnn</t>
+  </si>
+  <si>
+    <t>vakilipoor2022hybrid</t>
+  </si>
+  <si>
+    <t>farsad2017detection</t>
+  </si>
+  <si>
+    <t>bai2023temporal</t>
+  </si>
+  <si>
+    <t>koo2020deep</t>
+  </si>
+  <si>
+    <t>lu2023mcformer</t>
+  </si>
+  <si>
+    <t>cheng2024informer</t>
+  </si>
+  <si>
+    <t>baydas2023estimation</t>
+  </si>
+  <si>
+    <t>cheng2024signal</t>
+  </si>
+  <si>
+    <t>bartunik2023artificial</t>
+  </si>
+  <si>
+    <t>kim2023machine</t>
+  </si>
+  <si>
+    <t>kara2022molecular</t>
+  </si>
+  <si>
+    <t>kosanetzki2025demodulation</t>
+  </si>
+  <si>
+    <t>mohamed2019modelbased</t>
+  </si>
+  <si>
+    <t>khanzadeh2023towards</t>
+  </si>
+  <si>
+    <t>angerbauer2023towards</t>
+  </si>
+  <si>
+    <t>khanzadeh2023end</t>
+  </si>
+  <si>
+    <t>angerbauer2023salinitybased</t>
+  </si>
+  <si>
+    <t>khanzadeh2024explainable</t>
+  </si>
+  <si>
+    <t>cheng2023channel</t>
+  </si>
+  <si>
+    <t>MAC layer</t>
+  </si>
+  <si>
+    <t>cheng2024resource</t>
+  </si>
+  <si>
+    <t>Upper layers</t>
+  </si>
+  <si>
+    <t>kose2020machine</t>
+  </si>
+  <si>
+    <t>solak2020rnn</t>
+  </si>
+  <si>
+    <t>solak2020neural</t>
+  </si>
+  <si>
+    <t>mai2017event</t>
+  </si>
+  <si>
+    <t>khanzadeh2024ql-based</t>
+  </si>
+  <si>
+    <t>jin2024transformerbased</t>
+  </si>
+  <si>
+    <t>cheng2025localizing</t>
+  </si>
+  <si>
+    <t>NN Architecture</t>
+  </si>
+  <si>
+    <t>MC Scenario</t>
+  </si>
+  <si>
+    <t>NN Architectures</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>BiRNN</t>
+  </si>
+  <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Freee diffusion channels</t>
+  </si>
+  <si>
+    <t>Drifted channels</t>
+  </si>
+  <si>
+    <t>Human vessels</t>
+  </si>
+  <si>
+    <t>Open air</t>
+  </si>
+  <si>
+    <t>in-vivo bacteria colony</t>
+  </si>
+  <si>
+    <t>IoBNT layer</t>
+  </si>
+  <si>
+    <t>Channel Estimation</t>
+  </si>
+  <si>
+    <t>Synch.</t>
+  </si>
+  <si>
+    <t>Data Comm.</t>
+  </si>
+  <si>
+    <t>Data Fusion</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>Channel estimation</t>
+  </si>
+  <si>
+    <t>Feedforward NN</t>
+  </si>
+  <si>
+    <t>CNN, RNN</t>
+  </si>
+  <si>
+    <t>Vessel-like channels</t>
+  </si>
+  <si>
+    <t>Feedforward NN, BiRNN</t>
+  </si>
+  <si>
+    <t>Feedforward NN, CNN, RNN, BiRNN</t>
+  </si>
+  <si>
+    <t>Feedforward NN, CNN</t>
+  </si>
+  <si>
+    <t>Free diffusion channels</t>
+  </si>
+  <si>
+    <t>Channel Access</t>
+  </si>
+  <si>
+    <t>torres-gomez2022nanosensor2</t>
+  </si>
+  <si>
+    <t>torres-gomez2024dna-based</t>
+  </si>
+  <si>
+    <t>galvan2024tailoring</t>
+  </si>
+  <si>
+    <t>calvobartra2024graph</t>
+  </si>
+  <si>
+    <t>hube2025set</t>
+  </si>
+  <si>
+    <t>Graph Neural Network</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>ChannelEstimation</t>
+  </si>
+  <si>
+    <t>Synch_</t>
+  </si>
+  <si>
+    <t>DataComm_</t>
+  </si>
+  <si>
+    <t>ChannelAccess</t>
+  </si>
+  <si>
+    <t>DataFusion</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +348,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519242"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +401,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -75,7 +441,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -192,7 +558,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -216,9 +582,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -242,7 +608,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -277,7 +643,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -295,7 +661,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -320,7 +686,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -337,12 +703,2620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625598E0-E449-41F9-961C-32397F2D421D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" customWidth="true"/>
+    <col min="2" max="2" width="16.54296875" customWidth="true"/>
+    <col min="3" max="3" width="6.7265625" customWidth="true"/>
+    <col min="4" max="4" width="11.26953125" customWidth="true"/>
+    <col min="5" max="5" width="13.1796875" customWidth="true"/>
+    <col min="6" max="6" width="10.26953125" customWidth="true"/>
+    <col min="7" max="7" width="10.6328125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.35">
+      <c r="A2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.35">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.35">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.35">
+      <c r="A5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.35">
+      <c r="A6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.35">
+      <c r="A7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/Fig_10_NN_Architectures/References_vs_NN_MC_scenario.xlsx
+++ b/Tables/Fig_10_NN_Architectures/References_vs_NN_MC_scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\NN_molecular_communications\Tables\Fig_10_NN_Architectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615FEA7-2CC6-497A-8230-6B0D0642C4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D855777-6D78-40B6-8ADA-0E88377A455E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35625" yWindow="3585" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="100">
   <si>
     <t>Section</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Diam. P10</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -464,6 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +751,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -1929,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63:I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1948,7 +1952,7 @@
     <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>78</v>
       </c>
@@ -1970,15 +1974,15 @@
       <c r="G1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="11">
+      <c r="L1" s="11">
         <f>PI()*(0.2/2)^2</f>
         <v>3.1415926535897934E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
@@ -2006,15 +2010,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$1,References!$D$2:$D$68,Results!$A2,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>89</v>
       </c>
-      <c r="K2">
-        <f>SQRT($K$1/PI()/10)*2</f>
+      <c r="L2">
+        <f>SQRT($L$1/PI()/10)*2</f>
         <v>6.3245553203367583E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
@@ -2042,15 +2046,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$1,References!$D$2:$D$68,Results!$A3,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>90</v>
       </c>
-      <c r="K3">
-        <f>SQRT($K$1/PI()/9)*2</f>
+      <c r="L3">
+        <f>SQRT($L$1/PI()/9)*2</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>79</v>
       </c>
@@ -2078,15 +2082,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$1,References!$D$2:$D$68,Results!$A4,References!$E$2:$E$68,Results!G$1)</f>
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>91</v>
       </c>
-      <c r="K4">
-        <f>SQRT($K$1/PI()/8)*2</f>
+      <c r="L4">
+        <f>SQRT($L$1/PI()/8)*2</f>
         <v>7.0710678118654752E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
@@ -2114,15 +2118,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$1,References!$D$2:$D$68,Results!$A5,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>92</v>
       </c>
-      <c r="K5">
-        <f>SQRT($K$1/PI()/7)*2</f>
+      <c r="L5">
+        <f>SQRT($L$1/PI()/7)*2</f>
         <v>7.5592894601845442E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>67</v>
       </c>
@@ -2150,15 +2154,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$1,References!$D$2:$D$68,Results!$A6,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>93</v>
       </c>
-      <c r="K6">
-        <f>SQRT($K$1/PI()/6)*2</f>
+      <c r="L6">
+        <f>SQRT($L$1/PI()/6)*2</f>
         <v>8.1649658092772609E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
@@ -2186,25 +2190,32 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$1,References!$D$2:$D$68,Results!$A7,References!$E$2:$E$68,Results!G$1)</f>
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7">
+        <f>SUM(B2:G7)</f>
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="K7">
-        <f>SQRT($K$1/PI()/5)*2</f>
+      <c r="L7">
+        <f>SQRT($L$1/PI()/5)*2</f>
         <v>8.9442719099991588E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="K8">
-        <f>SQRT($K$1/PI()/4)*2</f>
+      <c r="L8">
+        <f>SQRT($L$1/PI()/4)*2</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
@@ -2226,15 +2237,15 @@
       <c r="G9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="K9">
-        <f>SQRT($K$1/PI()/3)*2</f>
+      <c r="L9">
+        <f>SQRT($L$1/PI()/3)*2</f>
         <v>0.11547005383792516</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>70</v>
       </c>
@@ -2262,15 +2273,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$9,References!$D$2:$D$68,Results!$A10,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>97</v>
       </c>
-      <c r="K10">
-        <f>SQRT($K$1/PI()/2)*2</f>
+      <c r="L10">
+        <f>SQRT($L$1/PI()/2)*2</f>
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>69</v>
       </c>
@@ -2298,15 +2309,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$9,References!$D$2:$D$68,Results!$A11,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>98</v>
       </c>
-      <c r="K11">
-        <f>SQRT($K$1/PI()/1)*2</f>
+      <c r="L11">
+        <f>SQRT($L$1/PI()/1)*2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>79</v>
       </c>
@@ -2335,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>68</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
@@ -2393,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>80</v>
       </c>
@@ -2421,8 +2432,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$9,References!$D$2:$D$68,Results!$A15,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <f>SUM(B10:G15)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>62</v>
       </c>
@@ -2445,7 +2463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>70</v>
       </c>
@@ -2474,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
@@ -2503,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
@@ -2532,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>68</v>
       </c>
@@ -2561,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>67</v>
       </c>
@@ -2590,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>80</v>
       </c>
@@ -2618,8 +2636,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$17,References!$D$2:$D$68,Results!$A23,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23">
+        <f>SUM(B18:G23)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>63</v>
       </c>
@@ -2641,15 +2666,15 @@
       <c r="G25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="11">
+      <c r="M25" s="11">
         <f>PI()*(0.2/2)^2</f>
         <v>3.1415926535897934E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>70</v>
       </c>
@@ -2677,15 +2702,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$25,References!$D$2:$D$68,Results!$A26,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>89</v>
       </c>
-      <c r="K26">
-        <f>SQRT($K$1/PI()/10)*2</f>
+      <c r="M26">
+        <f>SQRT($L$1/PI()/10)*2</f>
         <v>6.3245553203367583E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>69</v>
       </c>
@@ -2713,15 +2738,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$25,References!$D$2:$D$68,Results!$A27,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>90</v>
       </c>
-      <c r="K27">
-        <f>SQRT($K$1/PI()/9)*2</f>
+      <c r="M27">
+        <f>SQRT($L$1/PI()/9)*2</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
@@ -2749,15 +2774,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$25,References!$D$2:$D$68,Results!$A28,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>91</v>
       </c>
-      <c r="K28">
-        <f>SQRT($K$1/PI()/8)*2</f>
+      <c r="M28">
+        <f>SQRT($L$1/PI()/8)*2</f>
         <v>7.0710678118654752E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>68</v>
       </c>
@@ -2785,15 +2810,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$25,References!$D$2:$D$68,Results!$A29,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>92</v>
       </c>
-      <c r="K29">
-        <f>SQRT($K$1/PI()/7)*2</f>
+      <c r="M29">
+        <f>SQRT($L$1/PI()/7)*2</f>
         <v>7.5592894601845442E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>67</v>
       </c>
@@ -2821,15 +2846,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$25,References!$D$2:$D$68,Results!$A30,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>93</v>
       </c>
-      <c r="K30">
-        <f>SQRT($K$1/PI()/6)*2</f>
+      <c r="M30">
+        <f>SQRT($L$1/PI()/6)*2</f>
         <v>8.1649658092772609E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>80</v>
       </c>
@@ -2857,24 +2882,31 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$25,References!$D$2:$D$68,Results!$A31,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J31" t="s">
+      <c r="H31" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31">
+        <f>SUM(B26:G31)</f>
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
         <v>94</v>
       </c>
-      <c r="K31">
-        <f>SQRT($K$1/PI()/5)*2</f>
+      <c r="M31">
+        <f>SQRT($L$1/PI()/5)*2</f>
         <v>8.9442719099991588E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J32" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
         <v>95</v>
       </c>
-      <c r="K32">
-        <f>SQRT($K$1/PI()/4)*2</f>
+      <c r="M32">
+        <f>SQRT($L$1/PI()/4)*2</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>64</v>
       </c>
@@ -2896,15 +2928,15 @@
       <c r="G33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>96</v>
       </c>
-      <c r="K33">
-        <f>SQRT($K$1/PI()/3)*2</f>
+      <c r="M33">
+        <f>SQRT($L$1/PI()/3)*2</f>
         <v>0.11547005383792516</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>70</v>
       </c>
@@ -2932,15 +2964,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$33,References!$D$2:$D$68,Results!$A34,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>97</v>
       </c>
-      <c r="K34">
-        <f>SQRT($K$1/PI()/2)*2</f>
+      <c r="M34">
+        <f>SQRT($L$1/PI()/2)*2</f>
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>69</v>
       </c>
@@ -2968,15 +3000,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$33,References!$D$2:$D$68,Results!$A35,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>98</v>
       </c>
-      <c r="K35">
-        <f>SQRT($K$1/PI()/1)*2</f>
+      <c r="M35">
+        <f>SQRT($L$1/PI()/1)*2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>79</v>
       </c>
@@ -3005,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>68</v>
       </c>
@@ -3034,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
@@ -3063,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>80</v>
       </c>
@@ -3091,8 +3123,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$33,References!$D$2:$D$68,Results!$A39,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39">
+        <f>SUM(B34:G39)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>65</v>
       </c>
@@ -3115,7 +3154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>70</v>
       </c>
@@ -3144,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>69</v>
       </c>
@@ -3173,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3202,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -3231,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3260,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>80</v>
       </c>
@@ -3288,8 +3327,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$41,References!$D$2:$D$68,Results!$A47,References!$E$2:$E$68,Results!G$1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H47" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47">
+        <f>SUM(B42:G47)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>66</v>
       </c>
@@ -3311,15 +3357,15 @@
       <c r="G49" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="K49" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K49" s="11">
+      <c r="L49" s="11">
         <f>PI()*(0.2/2)^2</f>
         <v>3.1415926535897934E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>70</v>
       </c>
@@ -3347,15 +3393,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$49,References!$D$2:$D$68,Results!$A50,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>89</v>
       </c>
-      <c r="K50">
-        <f>SQRT($K$1/PI()/10)*2</f>
+      <c r="L50">
+        <f>SQRT($L$1/PI()/10)*2</f>
         <v>6.3245553203367583E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>69</v>
       </c>
@@ -3383,15 +3429,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$49,References!$D$2:$D$68,Results!$A51,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>90</v>
       </c>
-      <c r="K51">
-        <f>SQRT($K$1/PI()/9)*2</f>
+      <c r="L51">
+        <f>SQRT($L$1/PI()/9)*2</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>79</v>
       </c>
@@ -3419,15 +3465,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$49,References!$D$2:$D$68,Results!$A52,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>91</v>
       </c>
-      <c r="K52">
-        <f>SQRT($K$1/PI()/8)*2</f>
+      <c r="L52">
+        <f>SQRT($L$1/PI()/8)*2</f>
         <v>7.0710678118654752E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>68</v>
       </c>
@@ -3455,15 +3501,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$49,References!$D$2:$D$68,Results!$A53,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>92</v>
       </c>
-      <c r="K53">
-        <f>SQRT($K$1/PI()/7)*2</f>
+      <c r="L53">
+        <f>SQRT($L$1/PI()/7)*2</f>
         <v>7.5592894601845442E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>67</v>
       </c>
@@ -3491,15 +3537,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$49,References!$D$2:$D$68,Results!$A54,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>93</v>
       </c>
-      <c r="K54">
-        <f>SQRT($K$1/PI()/6)*2</f>
+      <c r="L54">
+        <f>SQRT($L$1/PI()/6)*2</f>
         <v>8.1649658092772609E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>80</v>
       </c>
@@ -3527,24 +3573,31 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$49,References!$D$2:$D$68,Results!$A55,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J55" t="s">
+      <c r="H55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55">
+        <f>SUM(B50:G55)</f>
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
         <v>94</v>
       </c>
-      <c r="K55">
-        <f>SQRT($K$1/PI()/5)*2</f>
+      <c r="L55">
+        <f>SQRT($L$1/PI()/5)*2</f>
         <v>8.9442719099991588E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J56" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K56" t="s">
         <v>95</v>
       </c>
-      <c r="K56">
-        <f>SQRT($K$1/PI()/4)*2</f>
+      <c r="L56">
+        <f>SQRT($L$1/PI()/4)*2</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>87</v>
       </c>
@@ -3566,15 +3619,15 @@
       <c r="G57" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>96</v>
       </c>
-      <c r="K57">
-        <f>SQRT($K$1/PI()/3)*2</f>
+      <c r="L57">
+        <f>SQRT($L$1/PI()/3)*2</f>
         <v>0.11547005383792516</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>70</v>
       </c>
@@ -3602,15 +3655,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$57,References!$D$2:$D$68,Results!$A58,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>97</v>
       </c>
-      <c r="K58">
-        <f>SQRT($K$1/PI()/2)*2</f>
+      <c r="L58">
+        <f>SQRT($L$1/PI()/2)*2</f>
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>69</v>
       </c>
@@ -3638,15 +3691,15 @@
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$57,References!$D$2:$D$68,Results!$A59,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>98</v>
       </c>
-      <c r="K59">
-        <f>SQRT($K$1/PI()/1)*2</f>
+      <c r="L59">
+        <f>SQRT($L$1/PI()/1)*2</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>79</v>
       </c>
@@ -3675,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
@@ -3704,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>67</v>
       </c>
@@ -3733,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>80</v>
       </c>
@@ -3760,6 +3813,13 @@
       <c r="G63" s="9">
         <f>COUNTIFS(References!$C$2:$C$68,Results!$A$57,References!$D$2:$D$68,Results!$A63,References!$E$2:$E$68,Results!G$1)</f>
         <v>0</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63">
+        <f>SUM(B58:G63)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
